--- a/nba/Excel/team_leaders_nba.xlsx
+++ b/nba/Excel/team_leaders_nba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>Rank</t>
   </si>
@@ -33,28 +33,25 @@
     <t>Indiana Pacers</t>
   </si>
   <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
     <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>LA Clippers</t>
   </si>
   <si>
-    <t>50.7</t>
-  </si>
-  <si>
-    <t>50.1</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>49.6</t>
+    <t>50.8</t>
+  </si>
+  <si>
+    <t>49.9</t>
+  </si>
+  <si>
+    <t>49.5</t>
   </si>
   <si>
     <t>Boston Celtics</t>
@@ -66,10 +63,10 @@
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>+9.6</t>
-  </si>
-  <si>
-    <t>+7.7</t>
+    <t>+9.3</t>
+  </si>
+  <si>
+    <t>+7.0</t>
   </si>
   <si>
     <t>+6.3</t>
@@ -78,22 +75,22 @@
     <t>+6.0</t>
   </si>
   <si>
-    <t>+5.5</t>
+    <t>+5.8</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>124.0</t>
-  </si>
-  <si>
-    <t>123.0</t>
-  </si>
-  <si>
-    <t>121.5</t>
-  </si>
-  <si>
-    <t>120.8</t>
+    <t>124.1</t>
+  </si>
+  <si>
+    <t>122.9</t>
+  </si>
+  <si>
+    <t>121.7</t>
+  </si>
+  <si>
+    <t>120.7</t>
   </si>
   <si>
     <t>120.4</t>
@@ -102,19 +99,19 @@
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
   </si>
   <si>
     <t>107.1</t>
   </si>
   <si>
-    <t>109.3</t>
-  </si>
-  <si>
-    <t>109.6</t>
-  </si>
-  <si>
-    <t>110.5</t>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>109.9</t>
   </si>
   <si>
     <t>110.8</t>
@@ -129,25 +126,19 @@
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>47.5</t>
+    <t>47.4</t>
   </si>
   <si>
     <t>46.7</t>
   </si>
   <si>
-    <t>46.6</t>
-  </si>
-  <si>
-    <t>46.3</t>
-  </si>
-  <si>
-    <t>45.3</t>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>45.6</t>
   </si>
   <si>
     <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>6.6</t>
@@ -555,13 +546,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -572,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -583,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -615,10 +606,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -626,10 +617,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -637,10 +628,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -651,7 +642,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -659,10 +650,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -697,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -708,7 +699,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -716,10 +707,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -727,10 +718,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -738,10 +729,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -784,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -795,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -806,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -814,13 +805,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -852,10 +843,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -863,21 +854,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -885,10 +876,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -896,10 +887,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -931,10 +922,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -942,10 +933,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -953,10 +944,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -964,10 +955,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -975,10 +966,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/nba/Excel/team_leaders_nba.xlsx
+++ b/nba/Excel/team_leaders_nba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>Rank</t>
   </si>
@@ -33,88 +33,94 @@
     <t>Indiana Pacers</t>
   </si>
   <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
     <t>Milwaukee Bucks</t>
   </si>
   <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>50.8</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>49.9</t>
+  </si>
+  <si>
+    <t>49.4</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
     <t>LA Clippers</t>
   </si>
   <si>
-    <t>50.8</t>
-  </si>
-  <si>
-    <t>49.9</t>
-  </si>
-  <si>
-    <t>49.5</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>+9.3</t>
-  </si>
-  <si>
-    <t>+7.0</t>
-  </si>
-  <si>
-    <t>+6.3</t>
-  </si>
-  <si>
-    <t>+6.0</t>
-  </si>
-  <si>
-    <t>+5.8</t>
+    <t>+10.1</t>
+  </si>
+  <si>
+    <t>+7.2</t>
+  </si>
+  <si>
+    <t>+7.1</t>
+  </si>
+  <si>
+    <t>+5.6</t>
+  </si>
+  <si>
+    <t>+5.5</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>124.1</t>
-  </si>
-  <si>
-    <t>122.9</t>
-  </si>
-  <si>
-    <t>121.7</t>
+    <t>123.7</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>121.3</t>
+  </si>
+  <si>
+    <t>120.8</t>
   </si>
   <si>
     <t>120.7</t>
   </si>
   <si>
-    <t>120.4</t>
-  </si>
-  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
     <t>Miami Heat</t>
   </si>
   <si>
-    <t>107.1</t>
-  </si>
-  <si>
-    <t>109.0</t>
+    <t>106.7</t>
+  </si>
+  <si>
+    <t>109.2</t>
   </si>
   <si>
     <t>109.9</t>
   </si>
   <si>
-    <t>110.8</t>
+    <t>110.4</t>
+  </si>
+  <si>
+    <t>110.6</t>
   </si>
   <si>
     <t>Utah Jazz</t>
@@ -126,28 +132,37 @@
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>47.4</t>
+    <t>47.3</t>
   </si>
   <si>
     <t>46.7</t>
   </si>
   <si>
-    <t>46.0</t>
-  </si>
-  <si>
-    <t>45.6</t>
+    <t>46.6</t>
+  </si>
+  <si>
+    <t>45.9</t>
+  </si>
+  <si>
+    <t>45.7</t>
   </si>
   <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
-    <t>6.6</t>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>6.2</t>
   </si>
   <si>
     <t>6.1</t>
-  </si>
-  <si>
-    <t>6.0</t>
   </si>
 </sst>
 </file>
@@ -546,13 +561,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -563,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -574,7 +589,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -606,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -617,10 +632,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -628,10 +643,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -639,10 +654,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -650,10 +665,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -699,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -707,10 +722,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -718,10 +733,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -729,10 +744,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -764,10 +779,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -775,10 +790,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -786,10 +801,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -797,21 +812,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -843,10 +858,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -854,21 +869,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -876,10 +891,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -887,10 +902,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -922,21 +937,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -944,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -955,10 +970,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -966,10 +981,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/nba/Excel/team_leaders_nba.xlsx
+++ b/nba/Excel/team_leaders_nba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Rank</t>
   </si>
@@ -48,10 +48,10 @@
     <t>50.8</t>
   </si>
   <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>49.9</t>
+    <t>50.1</t>
+  </si>
+  <si>
+    <t>49.8</t>
   </si>
   <si>
     <t>49.4</t>
@@ -69,25 +69,25 @@
     <t>LA Clippers</t>
   </si>
   <si>
-    <t>+10.1</t>
+    <t>+10.2</t>
+  </si>
+  <si>
+    <t>+7.4</t>
   </si>
   <si>
     <t>+7.2</t>
   </si>
   <si>
-    <t>+7.1</t>
-  </si>
-  <si>
-    <t>+5.6</t>
-  </si>
-  <si>
-    <t>+5.5</t>
+    <t>+5.4</t>
+  </si>
+  <si>
+    <t>+5.0</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>123.7</t>
+    <t>123.8</t>
   </si>
   <si>
     <t>122.0</t>
@@ -96,12 +96,12 @@
     <t>121.3</t>
   </si>
   <si>
+    <t>121.0</t>
+  </si>
+  <si>
     <t>120.8</t>
   </si>
   <si>
-    <t>120.7</t>
-  </si>
-  <si>
     <t>New York Knicks</t>
   </si>
   <si>
@@ -111,10 +111,10 @@
     <t>106.7</t>
   </si>
   <si>
-    <t>109.2</t>
-  </si>
-  <si>
-    <t>109.9</t>
+    <t>109.3</t>
+  </si>
+  <si>
+    <t>109.7</t>
   </si>
   <si>
     <t>110.4</t>
@@ -132,16 +132,16 @@
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>47.3</t>
+    <t>47.1</t>
+  </si>
+  <si>
+    <t>46.8</t>
   </si>
   <si>
     <t>46.7</t>
   </si>
   <si>
-    <t>46.6</t>
-  </si>
-  <si>
-    <t>45.9</t>
+    <t>45.8</t>
   </si>
   <si>
     <t>45.7</t>
@@ -156,13 +156,16 @@
     <t>6.7</t>
   </si>
   <si>
-    <t>6.5</t>
+    <t>6.6</t>
   </si>
   <si>
     <t>6.2</t>
   </si>
   <si>
     <t>6.1</t>
+  </si>
+  <si>
+    <t>6.0</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -643,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -970,7 +973,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -978,13 +981,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/nba/Excel/team_leaders_nba.xlsx
+++ b/nba/Excel/team_leaders_nba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Rank</t>
   </si>
@@ -36,133 +36,136 @@
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
+    <t>50.6</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>49.8</t>
+  </si>
+  <si>
+    <t>49.5</t>
+  </si>
+  <si>
+    <t>49.3</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>+11.2</t>
+  </si>
+  <si>
+    <t>+7.6</t>
+  </si>
+  <si>
+    <t>+6.4</t>
+  </si>
+  <si>
+    <t>+4.8</t>
+  </si>
+  <si>
+    <t>+4.4</t>
+  </si>
+  <si>
     <t>Milwaukee Bucks</t>
   </si>
   <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>50.8</t>
-  </si>
-  <si>
-    <t>50.1</t>
-  </si>
-  <si>
-    <t>49.8</t>
-  </si>
-  <si>
-    <t>49.4</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>123.1</t>
+  </si>
+  <si>
+    <t>120.9</t>
+  </si>
+  <si>
+    <t>120.8</t>
+  </si>
+  <si>
+    <t>120.4</t>
+  </si>
+  <si>
+    <t>119.4</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>+10.2</t>
-  </si>
-  <si>
-    <t>+7.4</t>
-  </si>
-  <si>
-    <t>+7.2</t>
-  </si>
-  <si>
-    <t>+5.4</t>
-  </si>
-  <si>
-    <t>+5.0</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>123.8</t>
-  </si>
-  <si>
-    <t>122.0</t>
-  </si>
-  <si>
-    <t>121.3</t>
-  </si>
-  <si>
-    <t>121.0</t>
-  </si>
-  <si>
-    <t>120.8</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
     <t>106.7</t>
   </si>
   <si>
+    <t>108.1</t>
+  </si>
+  <si>
     <t>109.3</t>
   </si>
   <si>
+    <t>109.4</t>
+  </si>
+  <si>
     <t>109.7</t>
   </si>
   <si>
-    <t>110.4</t>
-  </si>
-  <si>
-    <t>110.6</t>
+    <t>Golden State Warriors</t>
   </si>
   <si>
     <t>Utah Jazz</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>47.1</t>
-  </si>
-  <si>
-    <t>46.8</t>
+    <t>46.9</t>
   </si>
   <si>
     <t>46.7</t>
   </si>
   <si>
+    <t>46.1</t>
+  </si>
+  <si>
+    <t>45.9</t>
+  </si>
+  <si>
     <t>45.8</t>
   </si>
   <si>
-    <t>45.7</t>
+    <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
     <t>6.7</t>
   </si>
   <si>
     <t>6.6</t>
   </si>
   <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>6.1</t>
+    <t>6.3</t>
   </si>
   <si>
     <t>6.0</t>
@@ -586,13 +589,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -624,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -646,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -657,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -668,7 +671,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -706,7 +709,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -714,10 +717,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -725,10 +728,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -736,10 +739,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -747,10 +750,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -782,10 +785,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -793,10 +796,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -804,10 +807,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -815,10 +818,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -826,10 +829,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -861,10 +864,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -872,10 +875,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -883,10 +886,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -894,10 +897,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -905,10 +908,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -951,10 +954,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -962,21 +965,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -984,10 +987,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/nba/Excel/team_leaders_nba.xlsx
+++ b/nba/Excel/team_leaders_nba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>Rank</t>
   </si>
@@ -30,145 +30,121 @@
     <t>Valor</t>
   </si>
   <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
+    <t>50.9</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>48.1</t>
+  </si>
+  <si>
+    <t>47.6</t>
+  </si>
+  <si>
+    <t>47.5</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>50.6</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>49.8</t>
-  </si>
-  <si>
-    <t>49.5</t>
-  </si>
-  <si>
-    <t>49.3</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>+11.2</t>
-  </si>
-  <si>
-    <t>+7.6</t>
-  </si>
-  <si>
-    <t>+6.4</t>
-  </si>
-  <si>
-    <t>+4.8</t>
-  </si>
-  <si>
-    <t>+4.4</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>123.1</t>
-  </si>
-  <si>
-    <t>120.9</t>
-  </si>
-  <si>
-    <t>120.8</t>
-  </si>
-  <si>
-    <t>120.4</t>
-  </si>
-  <si>
-    <t>119.4</t>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>+18.5</t>
+  </si>
+  <si>
+    <t>+17.0</t>
+  </si>
+  <si>
+    <t>+6.6</t>
+  </si>
+  <si>
+    <t>+5.0</t>
+  </si>
+  <si>
+    <t>+4.6</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Orlando Magic</t>
+    <t>112.5</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>109.7</t>
+  </si>
+  <si>
+    <t>109.5</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>106.7</t>
-  </si>
-  <si>
-    <t>108.1</t>
-  </si>
-  <si>
-    <t>109.3</t>
-  </si>
-  <si>
-    <t>109.4</t>
-  </si>
-  <si>
-    <t>109.7</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>46.9</t>
-  </si>
-  <si>
-    <t>46.7</t>
-  </si>
-  <si>
-    <t>46.1</t>
-  </si>
-  <si>
-    <t>45.9</t>
-  </si>
-  <si>
-    <t>45.8</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>6.3</t>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>96.5</t>
+  </si>
+  <si>
+    <t>96.7</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>48.3</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
   </si>
   <si>
     <t>6.0</t>
+  </si>
+  <si>
+    <t>5.5</t>
   </si>
 </sst>
 </file>
@@ -627,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -638,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -649,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -660,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -671,7 +647,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -706,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -717,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -728,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -739,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -750,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -785,21 +761,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -807,10 +783,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -818,10 +794,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -829,10 +805,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -875,10 +851,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -886,10 +862,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -897,21 +873,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -943,10 +919,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -954,32 +930,32 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -987,10 +963,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/nba/Excel/team_leaders_nba.xlsx
+++ b/nba/Excel/team_leaders_nba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>Rank</t>
   </si>
@@ -30,121 +30,127 @@
     <t>Valor</t>
   </si>
   <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>49.5</t>
+  </si>
+  <si>
+    <t>49.2</t>
+  </si>
+  <si>
+    <t>48.1</t>
+  </si>
+  <si>
+    <t>47.5</t>
+  </si>
+  <si>
+    <t>47.3</t>
+  </si>
+  <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>50.9</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>48.1</t>
-  </si>
-  <si>
-    <t>47.6</t>
-  </si>
-  <si>
-    <t>47.5</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
     <t>Orlando Magic</t>
   </si>
   <si>
-    <t>+18.5</t>
-  </si>
-  <si>
-    <t>+17.0</t>
-  </si>
-  <si>
-    <t>+6.6</t>
-  </si>
-  <si>
-    <t>+5.0</t>
-  </si>
-  <si>
-    <t>+4.6</t>
+    <t>+11.0</t>
+  </si>
+  <si>
+    <t>+9.5</t>
+  </si>
+  <si>
+    <t>+7.2</t>
+  </si>
+  <si>
+    <t>+4.4</t>
+  </si>
+  <si>
+    <t>+4.0</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>112.5</t>
-  </si>
-  <si>
-    <t>110.0</t>
-  </si>
-  <si>
-    <t>109.7</t>
-  </si>
-  <si>
-    <t>109.5</t>
-  </si>
-  <si>
-    <t>109.0</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
+    <t>114.8</t>
+  </si>
+  <si>
+    <t>110.3</t>
+  </si>
+  <si>
+    <t>110.2</t>
+  </si>
+  <si>
+    <t>109.6</t>
+  </si>
+  <si>
+    <t>108.2</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>96.5</t>
-  </si>
-  <si>
-    <t>96.7</t>
-  </si>
-  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
-    <t>48.3</t>
-  </si>
-  <si>
-    <t>46.0</t>
+    <t>95.9</t>
+  </si>
+  <si>
+    <t>96.6</t>
+  </si>
+  <si>
+    <t>102.8</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>45.5</t>
   </si>
   <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>5.5</t>
+    <t>45.1</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>44.1</t>
+  </si>
+  <si>
+    <t>43.9</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>5.1</t>
   </si>
 </sst>
 </file>
@@ -606,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -614,10 +620,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -625,10 +631,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -639,7 +645,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -647,10 +653,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -682,10 +688,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -693,10 +699,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -704,10 +710,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -715,10 +721,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -726,10 +732,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -761,18 +767,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -780,13 +786,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -794,10 +800,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -805,10 +811,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -840,10 +846,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -851,10 +857,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -862,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -873,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -881,13 +887,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -919,10 +925,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -930,21 +936,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -952,10 +958,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -963,10 +969,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
